--- a/contents/블로그 조회수 실적 MASGOLF.xlsx
+++ b/contents/블로그 조회수 실적 MASGOLF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/External_Disk/Dropbox/패밀리룸/2025.07.10.연간마케팅,컨텐츠일정/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m2/MASLABS/win.masgolf.co.kr/contents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037E076C-FA6F-F642-B0D5-4EBBF9411EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9C0F3F-7273-AE41-84D7-10A1BCECBF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24320" yWindow="2520" windowWidth="25920" windowHeight="39980" xr2:uid="{A6D4BB46-45CF-4E04-ACF9-CAA07B137C50}"/>
+    <workbookView xWindow="14660" yWindow="500" windowWidth="25920" windowHeight="27500" xr2:uid="{A6D4BB46-45CF-4E04-ACF9-CAA07B137C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,546 +64,548 @@
     <t>2025-05-30(금)</t>
   </si>
   <si>
+    <t>mas9golf</t>
+  </si>
+  <si>
+    <t>2025-06-04(수)</t>
+  </si>
+  <si>
+    <t>중장년 골프채 추천｜체력 변화에 맞춘 골프클럽 교체기</t>
+  </si>
+  <si>
+    <t>🏌️‍♂️ 민OO 고객님 사례로 보는 고반발 드라이버 추천 &amp; 골프 비거리 늘리기 솔루션</t>
+  </si>
+  <si>
+    <t>골프 심장이 뛴다: 법무사 김O현의 고반발 골프드라이버 3번의 선택</t>
+  </si>
+  <si>
+    <t>고반발 드라이버 내구성 검증 - MASGOLF A/S 후기와 재구매 이유</t>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-09(월)</t>
+  </si>
+  <si>
+    <t>2025-06-09(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마쓰구 골프? 이젠 마스골프! 같은 드라이버, 새로운 이름입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20년 골퍼의 신뢰, '마스골프(MASGOLF)'로 리브랜딩한 마쓰구 드라이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비거리가 고민이라면? 지금은 마스골프(MASGOLF) 시대!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시니어 골프 드라이버 추천 후기 - 70대 고객이 고른 고반발 드라이버로 250m 장타?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223880982513</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223880986984</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223880977391</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223888058863</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223888090505</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223888113634</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223883090973</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223883189153</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223883142657</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223893461824</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223893515544</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223893439861</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민호식 후기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상현 후기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마쓰구 마스골프 리브랜딩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영구 후기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-11(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-11(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인생의 황금기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223895770415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223895897958</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>massgoogolfkorea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223895747084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이버 비거리 줄어 고민이라면? 40년 경력 골퍼의 MASGOLF 후기로 확인해보세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“비거리 25m 늘었어요” – 고반발 드라이버, 43년 경력 골퍼의 MASGOLF 후기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고객 스토리] MASGOLF 시타존에서 만난 평택 고객님의 특별한 드라이버 비교 체험기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스골프 고반발 드라이버, 40년 경력 골퍼의 황금기를 시작하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-13(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-16(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-18(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인생의 황금기(프라임 타임)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프 파손 보험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손 걱정없는 고반발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱기스트 드라이버 찾는다면? MASGOLF(구.마쓰구골프) 고반발 드라이버로 인생 황금기를 완성하세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223897987310</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고반발 드라이버, 내구성 걱정되시나요? 골프보험으로 안심하세요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223901147195</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASGOLF 고반발 드라이버, DAT55G 티타늄으로 파손 걱정 없는 이유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223903521983</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[골프행사 추천] 시니어 골퍼를 위한 비거리 체험 이벤트, MASGOLF '황금기 챌린지'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223898035480</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프파손보험, MASGOLF 드라이버를 오래 쓰는 가장 현명한 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223901059174</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고반발 드라이버의 진짜 기준, MASGOLF가 선택한 DAT55G 티타늄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223903538659</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시니어 골프 대회] MASGOLF '황금기 챌린지', 비거리 실력으로 승부하는 특별한 초청전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223898282185</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이버 헤드 깨짐? 수리비 50만원 보상받는 골프보험 꿀팁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223901186849</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASGOLF 드라이버, DAT55G로 완성한 프리미엄 설계의 정점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223903564611</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-20(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 걱정 없이 즐기는 골프? 60대도 200m 이상! 시니어 전용 고반발 드라이버 마스골프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력, 나이, 건강상태 걱정없는 골프장비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223905612790</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70에도 골프를 즐긴다는 건, 단순한 취미가 아닙니다 – 체력 부담 없는 마스골프 이야기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223905627254</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사도 권하는 가벼운 운동, 60대 이후엔 골프가 정답입니다 – 무리 없는 시니어 드라이버 추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223905667639</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-23(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금이 바로 기회! 6월 MASGOLF 황금기 캠페인 종료 직전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라임타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223908910368</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223908876026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 황금기 이벤트 마감 임박! 지금이 아니면, 다음은 없습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>늦지 않았습니다. 당신의 전성기는 지금부터입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223908931038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시니어 골프채 추천] 30년 골프 인생의 황금기, 단 5일 남은 비거리 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라임타임 재탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223911365507</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시니어 드라이버 추천] 30년 골퍼에게 마스골프가 선택되는 이유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223911415069</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시니어 골프채 일기] 68세 골퍼 김OO님의 하루, 오늘도 200m를 넘겼습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223911447165</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-25(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-27(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-30(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS9 드라이버로 여름 필드를 정복하다 : 비거리와 정확성의 완벽 조화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223916628865</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이버 강점, 여름철 스윙법, 성공사례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 골프 준비, 지금이 골든타임입니다 - 건강, 장비, 휴가까지 한 번에 챙기는 시니어 골퍼 가이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223916631387</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 혜택, 건강팁, 휴가준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시니어 골프 여름 준비, 지금이 가장 중요한 이유 – 건강·비거리·여행까지 한 번에 해결하는 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223916761624</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS9 드라이버로 여름 티샷을 터뜨려라!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223916693571</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시니어 골프 인생의 전환점, 올여름을 다르게 만들어줄 단 하나의 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223916805681</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-02(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윙연습(올바른스윙, 스윙연습방법, 여름철 적정 연습 기간)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습은 줄이고 비거리는 늘리는 방법, 여름에도 가능합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223919373634</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비거리를 바꾸는 여름 골프 루틴, 하루 10분이면 충분합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223919214454</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름에도 드라이버 비거리 늘리는 스윙 연습법 3가지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223919185481</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-04(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70대 고객님도 놀라신 '고반발 드라이버 시타' 마스골프 본사에서 직접 체험해보세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스골프 시타 체험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223921802418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[여름 골프 연습] 실내 시타로 골프감 유지하는 법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223921717730</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[마스골프 시타 안내] 무더운 여름, 실내에서 직접 경험해보세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223921664415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-07(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비거리가 줄었다 느낀 순간, 마스골프가 답입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 마스골프 이벤트 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223924962231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨거운 여름, 완벽한 스윙을 위한 준비! 7월 마쓰골프 이벤트 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolf/223924994415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 한정 고반발 드라이버 혜택! MASGOLF 구매 시 로얄샬루트 21년 증정 + 쿨링세트까지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223925006923</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-09(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고반발 드라이버 후기｜7월 골프 이벤트로 ‘마스골프’ 직접 체험해봤습니다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/massgoogolfkorea/223927632776</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록적 폭염 속 시니어 골퍼를 위한 선택, 마스골프(마쓰구) 고반발드라이버 7월 혜택 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mas9golf/223927489711</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[사용자 리뷰] “드라이버는 진화한다” – 평택 중급 골퍼의 MASGOLF 골드2 시타 체험기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>비거리 극대화 시니어 골퍼 고반발 드라이버 재구매 후기</t>
-  </si>
-  <si>
-    <t>mas9golf</t>
-  </si>
-  <si>
-    <t>2025-06-04(수)</t>
-  </si>
-  <si>
-    <t>중장년 골프채 추천｜체력 변화에 맞춘 골프클럽 교체기</t>
-  </si>
-  <si>
-    <t>[사용자 리뷰] “드라이버는 진화한다” – 평택 중급 골퍼의 MASGOLF 골드2 시타 체험기</t>
-  </si>
-  <si>
-    <t>🏌️‍♂️ 민OO 고객님 사례로 보는 고반발 드라이버 추천 &amp; 골프 비거리 늘리기 솔루션</t>
-  </si>
-  <si>
-    <t>골프 심장이 뛴다: 법무사 김O현의 고반발 골프드라이버 3번의 선택</t>
-  </si>
-  <si>
-    <t>고반발 드라이버 내구성 검증 - MASGOLF A/S 후기와 재구매 이유</t>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-09(월)</t>
-  </si>
-  <si>
-    <t>2025-06-09(월)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마쓰구 골프? 이젠 마스골프! 같은 드라이버, 새로운 이름입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20년 골퍼의 신뢰, '마스골프(MASGOLF)'로 리브랜딩한 마쓰구 드라이버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비거리가 고민이라면? 지금은 마스골프(MASGOLF) 시대!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시니어 골프 드라이버 추천 후기 - 70대 고객이 고른 고반발 드라이버로 250m 장타?!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223880982513</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223880986984</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223880977391</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223888058863</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223888090505</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223888113634</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223883090973</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223883189153</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223883142657</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223893461824</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223893515544</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223893439861</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>글감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>민호식 후기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김상현 후기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마쓰구 마스골프 리브랜딩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박영구 후기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-11(수)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-11(수)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인생의 황금기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223895770415</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223895897958</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>massgoogolfkorea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223895747084</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라이버 비거리 줄어 고민이라면? 40년 경력 골퍼의 MASGOLF 후기로 확인해보세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“비거리 25m 늘었어요” – 고반발 드라이버, 43년 경력 골퍼의 MASGOLF 후기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[고객 스토리] MASGOLF 시타존에서 만난 평택 고객님의 특별한 드라이버 비교 체험기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스골프 고반발 드라이버, 40년 경력 골퍼의 황금기를 시작하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-13(금)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-16(월)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-18(수)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인생의 황금기(프라임 타임)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프 파손 보험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파손 걱정없는 고반발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱기스트 드라이버 찾는다면? MASGOLF(구.마쓰구골프) 고반발 드라이버로 인생 황금기를 완성하세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223897987310</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고반발 드라이버, 내구성 걱정되시나요? 골프보험으로 안심하세요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223901147195</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MASGOLF 고반발 드라이버, DAT55G 티타늄으로 파손 걱정 없는 이유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223903521983</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[골프행사 추천] 시니어 골퍼를 위한 비거리 체험 이벤트, MASGOLF '황금기 챌린지'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223898035480</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프파손보험, MASGOLF 드라이버를 오래 쓰는 가장 현명한 방법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223901059174</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고반발 드라이버의 진짜 기준, MASGOLF가 선택한 DAT55G 티타늄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223903538659</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[시니어 골프 대회] MASGOLF '황금기 챌린지', 비거리 실력으로 승부하는 특별한 초청전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223898282185</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라이버 헤드 깨짐? 수리비 50만원 보상받는 골프보험 꿀팁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223901186849</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MASGOLF 드라이버, DAT55G로 완성한 프리미엄 설계의 정점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223903564611</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-20(금)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 걱정 없이 즐기는 골프? 60대도 200m 이상! 시니어 전용 고반발 드라이버 마스골프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력, 나이, 건강상태 걱정없는 골프장비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223905612790</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70에도 골프를 즐긴다는 건, 단순한 취미가 아닙니다 – 체력 부담 없는 마스골프 이야기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223905627254</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의사도 권하는 가벼운 운동, 60대 이후엔 골프가 정답입니다 – 무리 없는 시니어 드라이버 추천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223905667639</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-23(월)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금이 바로 기회! 6월 MASGOLF 황금기 캠페인 종료 직전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프라임타임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223908910368</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223908876026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월 황금기 이벤트 마감 임박! 지금이 아니면, 다음은 없습니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>늦지 않았습니다. 당신의 전성기는 지금부터입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223908931038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[시니어 골프채 추천] 30년 골프 인생의 황금기, 단 5일 남은 비거리 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프라임타임 재탕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223911365507</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[시니어 드라이버 추천] 30년 골퍼에게 마스골프가 선택되는 이유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223911415069</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[시니어 골프채 일기] 68세 골퍼 김OO님의 하루, 오늘도 200m를 넘겼습니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223911447165</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-25(수)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-27(금)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-30(월)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS9 드라이버로 여름 필드를 정복하다 : 비거리와 정확성의 완벽 조화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223916628865</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라이버 강점, 여름철 스윙법, 성공사례</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름 골프 준비, 지금이 골든타임입니다 - 건강, 장비, 휴가까지 한 번에 챙기는 시니어 골퍼 가이드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223916631387</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 혜택, 건강팁, 휴가준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시니어 골프 여름 준비, 지금이 가장 중요한 이유 – 건강·비거리·여행까지 한 번에 해결하는 방법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223916761624</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS9 드라이버로 여름 티샷을 터뜨려라!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223916693571</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시니어 골프 인생의 전환점, 올여름을 다르게 만들어줄 단 하나의 선택</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223916805681</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-07-02(수)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스윙연습(올바른스윙, 스윙연습방법, 여름철 적정 연습 기간)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연습은 줄이고 비거리는 늘리는 방법, 여름에도 가능합니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223919373634</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비거리를 바꾸는 여름 골프 루틴, 하루 10분이면 충분합니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223919214454</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름에도 드라이버 비거리 늘리는 스윙 연습법 3가지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223919185481</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-07-04(금)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70대 고객님도 놀라신 '고반발 드라이버 시타' 마스골프 본사에서 직접 체험해보세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스골프 시타 체험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223921802418</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[여름 골프 연습] 실내 시타로 골프감 유지하는 법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223921717730</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[마스골프 시타 안내] 무더운 여름, 실내에서 직접 경험해보세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223921664415</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-07-07(월)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비거리가 줄었다 느낀 순간, 마스골프가 답입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 마스골프 이벤트 안내</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223924962231</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜨거운 여름, 완벽한 스윙을 위한 준비! 7월 마쓰골프 이벤트 안내</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolf/223924994415</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 한정 고반발 드라이버 혜택! MASGOLF 구매 시 로얄샬루트 21년 증정 + 쿨링세트까지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223925006923</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-07-09(수)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고반발 드라이버 후기｜7월 골프 이벤트로 ‘마스골프’ 직접 체험해봤습니다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/massgoogolfkorea/223927632776</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록적 폭염 속 시니어 골퍼를 위한 선택, 마스골프(마쓰구) 고반발드라이버 7월 혜택 안내</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mas9golf/223927489711</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1078,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="17"/>
@@ -1095,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1104,10 +1106,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1115,22 +1117,22 @@
     </row>
     <row r="2" spans="1:7" ht="36">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3">
         <v>9</v>
@@ -1141,19 +1143,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2">
         <v>26</v>
@@ -1161,22 +1163,22 @@
     </row>
     <row r="4" spans="1:7" ht="36">
       <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4">
         <v>3</v>
@@ -1184,22 +1186,22 @@
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3">
         <v>18</v>
@@ -1209,20 +1211,20 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
+      <c r="B6" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>18</v>
@@ -1230,22 +1232,22 @@
     </row>
     <row r="7" spans="1:7" ht="36">
       <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4">
         <v>26</v>
@@ -1253,22 +1255,22 @@
     </row>
     <row r="8" spans="1:7" ht="36">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" s="3">
         <v>19</v>
@@ -1278,20 +1280,20 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2">
         <v>69</v>
@@ -1299,22 +1301,22 @@
     </row>
     <row r="10" spans="1:7" ht="36">
       <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4">
         <v>6</v>
@@ -1322,22 +1324,22 @@
     </row>
     <row r="11" spans="1:7" ht="18">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3">
         <v>24</v>
@@ -1348,19 +1350,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2">
         <v>28</v>
@@ -1368,22 +1370,22 @@
     </row>
     <row r="13" spans="1:7" ht="36">
       <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" s="4">
         <v>8</v>
@@ -1391,22 +1393,22 @@
     </row>
     <row r="14" spans="1:7" ht="36">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -1417,19 +1419,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2">
         <v>31</v>
@@ -1437,22 +1439,22 @@
     </row>
     <row r="16" spans="1:7" ht="36">
       <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="G16" s="4">
         <v>3</v>
@@ -1460,22 +1462,22 @@
     </row>
     <row r="17" spans="1:7" ht="36">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G17" s="3">
         <v>11</v>
@@ -1486,19 +1488,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="G18" s="2">
         <v>32</v>
@@ -1506,22 +1508,22 @@
     </row>
     <row r="19" spans="1:7" ht="36">
       <c r="A19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G19" s="4">
         <v>8</v>
@@ -1529,22 +1531,22 @@
     </row>
     <row r="20" spans="1:7" ht="36">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G20" s="3">
         <v>37</v>
@@ -1554,20 +1556,20 @@
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
+      <c r="B21" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2">
         <v>9</v>
@@ -1575,22 +1577,22 @@
     </row>
     <row r="22" spans="1:7" ht="36">
       <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G22" s="4">
         <v>17</v>
@@ -1598,22 +1600,22 @@
     </row>
     <row r="23" spans="1:7" ht="36">
       <c r="A23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3">
         <v>2</v>
@@ -1623,20 +1625,20 @@
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
+      <c r="B24" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
@@ -1644,22 +1646,22 @@
     </row>
     <row r="25" spans="1:7" ht="36">
       <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G25" s="4">
         <v>2</v>
@@ -1667,22 +1669,22 @@
     </row>
     <row r="26" spans="1:7" ht="36">
       <c r="A26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G26" s="3">
         <v>10</v>
@@ -1692,20 +1694,20 @@
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
+      <c r="B27" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G27" s="2">
         <v>13</v>
@@ -1713,22 +1715,22 @@
     </row>
     <row r="28" spans="1:7" ht="36">
       <c r="A28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -1736,22 +1738,22 @@
     </row>
     <row r="29" spans="1:7" ht="18">
       <c r="A29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -1761,20 +1763,20 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
+      <c r="B30" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="G30" s="2">
         <v>5</v>
@@ -1782,22 +1784,22 @@
     </row>
     <row r="31" spans="1:7" ht="18">
       <c r="A31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -1805,22 +1807,22 @@
     </row>
     <row r="32" spans="1:7" ht="36">
       <c r="A32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -1830,20 +1832,20 @@
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
+      <c r="B33" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G33" s="2">
         <v>9</v>
@@ -1851,22 +1853,22 @@
     </row>
     <row r="34" spans="1:7" ht="36">
       <c r="A34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G34" s="4">
         <v>3</v>
@@ -1874,22 +1876,22 @@
     </row>
     <row r="35" spans="1:7" ht="36">
       <c r="A35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G35" s="3">
         <v>3</v>
@@ -1899,20 +1901,20 @@
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
+      <c r="B36" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G36" s="2">
         <v>6</v>
@@ -1920,22 +1922,22 @@
     </row>
     <row r="37" spans="1:7" ht="36">
       <c r="A37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G37" s="4">
         <v>4</v>
@@ -1943,22 +1945,22 @@
     </row>
     <row r="38" spans="1:7" ht="36">
       <c r="A38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="F38" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G38" s="3">
         <v>6</v>
@@ -1969,19 +1971,19 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="F39" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G39" s="2">
         <v>4</v>
@@ -1989,22 +1991,22 @@
     </row>
     <row r="40" spans="1:7" ht="36">
       <c r="A40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -2014,20 +2016,20 @@
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>17</v>
+      <c r="B41" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G41" s="2">
         <v>14</v>
@@ -2035,22 +2037,22 @@
     </row>
     <row r="42" spans="1:7" ht="36">
       <c r="A42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="G42" s="4">
         <v>4</v>
@@ -2058,22 +2060,22 @@
     </row>
     <row r="43" spans="1:7" ht="36">
       <c r="A43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2083,20 +2085,20 @@
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
+      <c r="B44" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -2104,22 +2106,22 @@
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
@@ -2127,22 +2129,22 @@
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -2151,82 +2153,82 @@
         <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="36">
       <c r="A48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="36">
       <c r="A49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="36">
       <c r="A50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G50" s="4"/>
     </row>
@@ -2289,5 +2291,6 @@
     <hyperlink ref="F49" r:id="rId49" xr:uid="{38E96DE8-BB8F-4863-B745-54A52EDA94A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>